--- a/analyses/flux/Dissolved_oxygen_diel_curve_analysis.xlsx
+++ b/analyses/flux/Dissolved_oxygen_diel_curve_analysis.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">rate_of_change_DO_corrected</t>
   </si>
   <si>
-    <t xml:space="preserve">Ca�o Boquer�n, Cabo Rojo</t>
+    <t xml:space="preserve">Caño Boquerón, Cabo Rojo</t>
   </si>
   <si>
     <t xml:space="preserve">6:27</t>
@@ -717,6 +717,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -776,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -786,10 +787,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -810,1063 +807,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dissolved_oxygen_diel_curve_ana!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Dissolved_oxygen_diel_curve_ana!$E$2:$E$252</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="251"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Dissolved_oxygen_diel_curve_ana!$H$2:$H$252</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="251"/>
-                <c:pt idx="0">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.4</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.6</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.9</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>4.1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>4.6</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>4.4</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>4.6</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>4.4</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>6.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="7159786"/>
-        <c:axId val="77464112"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="7159786"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77464112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="77464112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="7159786"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="8036640" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1877,17 +818,17 @@
   <dimension ref="A1:P252"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.6"/>
@@ -1914,7 +855,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -1952,20 +893,20 @@
       <c r="A2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <f aca="false">B2+E2</f>
         <v>42431.26875</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="0" t="n">
         <f aca="false">C2-B2</f>
         <v>0.26875</v>
       </c>
@@ -1987,20 +928,20 @@
       <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <f aca="false">B3+E3</f>
         <v>42431.2972222222</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="0" t="n">
         <f aca="false">C3-B3</f>
         <v>0.297222222222222</v>
       </c>
@@ -2040,20 +981,20 @@
       <c r="A4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <f aca="false">B4+E4</f>
         <v>42431.3395833333</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="0" t="n">
         <f aca="false">C4-B4</f>
         <v>0.339583333333333</v>
       </c>
@@ -2093,20 +1034,20 @@
       <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <f aca="false">B5+E5</f>
         <v>42431.38125</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="0" t="n">
         <f aca="false">C5-B5</f>
         <v>0.38125</v>
       </c>
@@ -2146,20 +1087,20 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <f aca="false">B6+E6</f>
         <v>42431.4222222222</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="0" t="n">
         <f aca="false">C6-B6</f>
         <v>0.422222222222222</v>
       </c>
@@ -2199,20 +1140,20 @@
       <c r="A7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <f aca="false">B7+E7</f>
         <v>42431.4652777778</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="0" t="n">
         <f aca="false">C7-B7</f>
         <v>0.465277777777778</v>
       </c>
@@ -2252,20 +1193,20 @@
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <f aca="false">B8+E8</f>
         <v>42431.5479166667</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="0" t="n">
         <f aca="false">C8-B8</f>
         <v>0.547916666666667</v>
       </c>
@@ -2305,20 +1246,20 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <f aca="false">B9+E9</f>
         <v>42431.5881944444</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="0" t="n">
         <f aca="false">C9-B9</f>
         <v>0.588194444444444</v>
       </c>
@@ -2358,20 +1299,20 @@
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="3" t="n">
         <f aca="false">B10+E10</f>
         <v>42431.63125</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="0" t="n">
         <f aca="false">C10-B10</f>
         <v>0.63125</v>
       </c>
@@ -2411,20 +1352,20 @@
       <c r="A11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="3" t="n">
         <f aca="false">B11+E11</f>
         <v>42431.6736111111</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="0" t="n">
         <f aca="false">C11-B11</f>
         <v>0.673611111111111</v>
       </c>
@@ -2464,20 +1405,20 @@
       <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="3" t="n">
         <f aca="false">B12+E12</f>
         <v>42431.7145833333</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="0" t="n">
         <f aca="false">C12-B12</f>
         <v>0.714583333333333</v>
       </c>
@@ -2517,20 +1458,20 @@
       <c r="A13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="3" t="n">
         <f aca="false">B13+E13</f>
         <v>42431.7597222222</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="0" t="n">
         <f aca="false">C13-B13</f>
         <v>0.759722222222222</v>
       </c>
@@ -2570,20 +1511,20 @@
       <c r="A14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="3" t="n">
         <f aca="false">B14+E14</f>
         <v>42431.7930555556</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="0" t="n">
         <f aca="false">C14-B14</f>
         <v>0.793055555555555</v>
       </c>
@@ -2623,20 +1564,20 @@
       <c r="A15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="3" t="n">
         <f aca="false">B15+E15</f>
         <v>42431.2770833333</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="0" t="n">
         <f aca="false">C15-B15</f>
         <v>0.277083333333333</v>
       </c>
@@ -2658,20 +1599,20 @@
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="3" t="n">
         <f aca="false">B16+E16</f>
         <v>42431.3048611111</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="0" t="n">
         <f aca="false">C16-B16</f>
         <v>0.304861111111111</v>
       </c>
@@ -2711,20 +1652,20 @@
       <c r="A17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="3" t="n">
         <f aca="false">B17+E17</f>
         <v>42431.3458333333</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="0" t="n">
         <f aca="false">C17-B17</f>
         <v>0.345833333333333</v>
       </c>
@@ -2764,20 +1705,20 @@
       <c r="A18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="3" t="n">
         <f aca="false">B18+E18</f>
         <v>42431.3875</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="0" t="n">
         <f aca="false">C18-B18</f>
         <v>0.3875</v>
       </c>
@@ -2817,20 +1758,20 @@
       <c r="A19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="3" t="n">
         <f aca="false">B19+E19</f>
         <v>42431.4284722222</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="0" t="n">
         <f aca="false">C19-B19</f>
         <v>0.428472222222222</v>
       </c>
@@ -2870,20 +1811,20 @@
       <c r="A20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="3" t="n">
         <f aca="false">B20+E20</f>
         <v>42431.4722222222</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="0" t="n">
         <f aca="false">C20-B20</f>
         <v>0.472222222222222</v>
       </c>
@@ -2923,20 +1864,20 @@
       <c r="A21" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="3" t="n">
         <f aca="false">B21+E21</f>
         <v>42431.5555555556</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="0" t="n">
         <f aca="false">C21-B21</f>
         <v>0.555555555555556</v>
       </c>
@@ -2976,20 +1917,20 @@
       <c r="A22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="3" t="n">
         <f aca="false">B22+E22</f>
         <v>42431.5958333333</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="0" t="n">
         <f aca="false">C22-B22</f>
         <v>0.595833333333333</v>
       </c>
@@ -3029,20 +1970,20 @@
       <c r="A23" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="3" t="n">
         <f aca="false">B23+E23</f>
         <v>42431.6388888889</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="0" t="n">
         <f aca="false">C23-B23</f>
         <v>0.638888888888889</v>
       </c>
@@ -3082,20 +2023,20 @@
       <c r="A24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="3" t="n">
         <f aca="false">B24+E24</f>
         <v>42431.6826388889</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="0" t="n">
         <f aca="false">C24-B24</f>
         <v>0.682638888888889</v>
       </c>
@@ -3135,20 +2076,20 @@
       <c r="A25" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="3" t="n">
         <f aca="false">B25+E25</f>
         <v>42431.7208333333</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="0" t="n">
         <f aca="false">C25-B25</f>
         <v>0.720833333333333</v>
       </c>
@@ -3188,20 +2129,20 @@
       <c r="A26" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="3" t="n">
         <f aca="false">B26+E26</f>
         <v>42431.7868055556</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="0" t="n">
         <f aca="false">C26-B26</f>
         <v>0.786805555555556</v>
       </c>
@@ -3241,20 +2182,20 @@
       <c r="A27" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="3" t="n">
         <f aca="false">B27+E27</f>
         <v>42431.2805555556</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="0" t="n">
         <f aca="false">C27-B27</f>
         <v>0.280555555555556</v>
       </c>
@@ -3276,20 +2217,20 @@
       <c r="A28" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="3" t="n">
         <f aca="false">B28+E28</f>
         <v>42431.3090277778</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="0" t="n">
         <f aca="false">C28-B28</f>
         <v>0.309027777777778</v>
       </c>
@@ -3329,20 +2270,20 @@
       <c r="A29" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="3" t="n">
         <f aca="false">B29+E29</f>
         <v>42431.3506944444</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="0" t="n">
         <f aca="false">C29-B29</f>
         <v>0.350694444444444</v>
       </c>
@@ -3382,20 +2323,20 @@
       <c r="A30" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="3" t="n">
         <f aca="false">B30+E30</f>
         <v>42431.3909722222</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="0" t="n">
         <f aca="false">C30-B30</f>
         <v>0.390972222222222</v>
       </c>
@@ -3435,20 +2376,20 @@
       <c r="A31" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="3" t="n">
         <f aca="false">B31+E31</f>
         <v>42431.4326388889</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="0" t="n">
         <f aca="false">C31-B31</f>
         <v>0.432638888888889</v>
       </c>
@@ -3488,20 +2429,20 @@
       <c r="A32" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="3" t="n">
         <f aca="false">B32+E32</f>
         <v>42431.4756944445</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="0" t="n">
         <f aca="false">C32-B32</f>
         <v>0.475694444444444</v>
       </c>
@@ -3541,20 +2482,20 @@
       <c r="A33" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="3" t="n">
         <f aca="false">B33+E33</f>
         <v>42431.5590277778</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="0" t="n">
         <f aca="false">C33-B33</f>
         <v>0.559027777777778</v>
       </c>
@@ -3594,20 +2535,20 @@
       <c r="A34" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="3" t="n">
         <f aca="false">B34+E34</f>
         <v>42431.5993055556</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="0" t="n">
         <f aca="false">C34-B34</f>
         <v>0.599305555555556</v>
       </c>
@@ -3647,20 +2588,20 @@
       <c r="A35" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="3" t="n">
         <f aca="false">B35+E35</f>
         <v>42431.6416666667</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" s="0" t="n">
         <f aca="false">C35-B35</f>
         <v>0.641666666666667</v>
       </c>
@@ -3700,20 +2641,20 @@
       <c r="A36" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="3" t="n">
         <f aca="false">B36+E36</f>
         <v>42431.6861111111</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" s="0" t="n">
         <f aca="false">C36-B36</f>
         <v>0.686111111111111</v>
       </c>
@@ -3753,20 +2694,20 @@
       <c r="A37" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="3" t="n">
         <f aca="false">B37+E37</f>
         <v>42431.7243055556</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" s="0" t="n">
         <f aca="false">C37-B37</f>
         <v>0.724305555555556</v>
       </c>
@@ -3806,20 +2747,20 @@
       <c r="A38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="3" t="n">
         <f aca="false">B38+E38</f>
         <v>42431.78125</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" s="0" t="n">
         <f aca="false">C38-B38</f>
         <v>0.78125</v>
       </c>
@@ -3859,20 +2800,20 @@
       <c r="A39" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="3" t="n">
         <f aca="false">B39+E39</f>
         <v>42431.2729166667</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" s="0" t="n">
         <f aca="false">C39-B39</f>
         <v>0.272916666666667</v>
       </c>
@@ -3894,20 +2835,20 @@
       <c r="A40" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="3" t="n">
         <f aca="false">B40+E40</f>
         <v>42431.3013888889</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" s="0" t="n">
         <f aca="false">C40-B40</f>
         <v>0.301388888888889</v>
       </c>
@@ -3947,20 +2888,20 @@
       <c r="A41" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="3" t="n">
         <f aca="false">B41+E41</f>
         <v>42431.3430555556</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" s="0" t="n">
         <f aca="false">C41-B41</f>
         <v>0.343055555555556</v>
       </c>
@@ -4000,20 +2941,20 @@
       <c r="A42" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="3" t="n">
         <f aca="false">B42+E42</f>
         <v>42431.3847222222</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" s="0" t="n">
         <f aca="false">C42-B42</f>
         <v>0.384722222222222</v>
       </c>
@@ -4053,20 +2994,20 @@
       <c r="A43" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="3" t="n">
         <f aca="false">B43+E43</f>
         <v>42431.4256944444</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" s="0" t="n">
         <f aca="false">C43-B43</f>
         <v>0.425694444444444</v>
       </c>
@@ -4106,20 +3047,20 @@
       <c r="A44" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="3" t="n">
         <f aca="false">B44+E44</f>
         <v>42431.4694444445</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" s="0" t="n">
         <f aca="false">C44-B44</f>
         <v>0.469444444444444</v>
       </c>
@@ -4159,20 +3100,20 @@
       <c r="A45" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="3" t="n">
         <f aca="false">B45+E45</f>
         <v>42431.5520833333</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="3" t="n">
+      <c r="F45" s="0" t="n">
         <f aca="false">C45-B45</f>
         <v>0.552083333333333</v>
       </c>
@@ -4212,20 +3153,20 @@
       <c r="A46" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="3" t="n">
         <f aca="false">B46+E46</f>
         <v>42431.5923611111</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="3" t="n">
+      <c r="F46" s="0" t="n">
         <f aca="false">C46-B46</f>
         <v>0.592361111111111</v>
       </c>
@@ -4265,20 +3206,20 @@
       <c r="A47" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="3" t="n">
         <f aca="false">B47+E47</f>
         <v>42431.6354166667</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="3" t="n">
+      <c r="F47" s="0" t="n">
         <f aca="false">C47-B47</f>
         <v>0.635416666666667</v>
       </c>
@@ -4318,20 +3259,20 @@
       <c r="A48" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="3" t="n">
         <f aca="false">B48+E48</f>
         <v>42431.6784722222</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="3" t="n">
+      <c r="F48" s="0" t="n">
         <f aca="false">C48-B48</f>
         <v>0.678472222222222</v>
       </c>
@@ -4371,20 +3312,20 @@
       <c r="A49" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="3" t="n">
         <f aca="false">B49+E49</f>
         <v>42431.7180555556</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="3" t="n">
+      <c r="F49" s="0" t="n">
         <f aca="false">C49-B49</f>
         <v>0.718055555555556</v>
       </c>
@@ -4424,20 +3365,20 @@
       <c r="A50" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="3" t="n">
         <f aca="false">B50+E50</f>
         <v>42431.7659722222</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="3" t="n">
+      <c r="F50" s="0" t="n">
         <f aca="false">C50-B50</f>
         <v>0.765972222222222</v>
       </c>
@@ -4477,20 +3418,20 @@
       <c r="A51" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C51" s="4" t="n">
+      <c r="C51" s="3" t="n">
         <f aca="false">B51+E51</f>
         <v>42431.2638888889</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="3" t="n">
+      <c r="F51" s="0" t="n">
         <f aca="false">C51-B51</f>
         <v>0.263888888888889</v>
       </c>
@@ -4512,20 +3453,20 @@
       <c r="A52" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C52" s="4" t="n">
+      <c r="C52" s="3" t="n">
         <f aca="false">B52+E52</f>
         <v>42431.2923611111</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="3" t="n">
+      <c r="F52" s="0" t="n">
         <f aca="false">C52-B52</f>
         <v>0.292361111111111</v>
       </c>
@@ -4565,20 +3506,20 @@
       <c r="A53" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C53" s="4" t="n">
+      <c r="C53" s="3" t="n">
         <f aca="false">B53+E53</f>
         <v>42431.3347222222</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F53" s="3" t="n">
+      <c r="F53" s="0" t="n">
         <f aca="false">C53-B53</f>
         <v>0.334722222222222</v>
       </c>
@@ -4618,20 +3559,20 @@
       <c r="A54" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C54" s="4" t="n">
+      <c r="C54" s="3" t="n">
         <f aca="false">B54+E54</f>
         <v>42431.3763888889</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="3" t="n">
+      <c r="F54" s="0" t="n">
         <f aca="false">C54-B54</f>
         <v>0.376388888888889</v>
       </c>
@@ -4671,20 +3612,20 @@
       <c r="A55" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="C55" s="3" t="n">
         <f aca="false">B55+E55</f>
         <v>42431.41875</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="3" t="n">
+      <c r="F55" s="0" t="n">
         <f aca="false">C55-B55</f>
         <v>0.41875</v>
       </c>
@@ -4724,20 +3665,20 @@
       <c r="A56" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C56" s="4" t="n">
+      <c r="C56" s="3" t="n">
         <f aca="false">B56+E56</f>
         <v>42431.4604166667</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="3" t="n">
+      <c r="F56" s="0" t="n">
         <f aca="false">C56-B56</f>
         <v>0.460416666666667</v>
       </c>
@@ -4777,20 +3718,20 @@
       <c r="A57" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C57" s="4" t="n">
+      <c r="C57" s="3" t="n">
         <f aca="false">B57+E57</f>
         <v>42431.54375</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="3" t="n">
+      <c r="F57" s="0" t="n">
         <f aca="false">C57-B57</f>
         <v>0.54375</v>
       </c>
@@ -4830,20 +3771,20 @@
       <c r="A58" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C58" s="3" t="n">
         <f aca="false">B58+E58</f>
         <v>42431.5847222222</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="3" t="n">
+      <c r="F58" s="0" t="n">
         <f aca="false">C58-B58</f>
         <v>0.584722222222222</v>
       </c>
@@ -4883,20 +3824,20 @@
       <c r="A59" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C59" s="4" t="n">
+      <c r="C59" s="3" t="n">
         <f aca="false">B59+E59</f>
         <v>42431.6270833333</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F59" s="3" t="n">
+      <c r="F59" s="0" t="n">
         <f aca="false">C59-B59</f>
         <v>0.627083333333333</v>
       </c>
@@ -4936,20 +3877,20 @@
       <c r="A60" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C60" s="4" t="n">
+      <c r="C60" s="3" t="n">
         <f aca="false">B60+E60</f>
         <v>42431.6694444444</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F60" s="3" t="n">
+      <c r="F60" s="0" t="n">
         <f aca="false">C60-B60</f>
         <v>0.669444444444444</v>
       </c>
@@ -4989,20 +3930,20 @@
       <c r="A61" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C61" s="3" t="n">
         <f aca="false">B61+E61</f>
         <v>42431.7131944444</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F61" s="3" t="n">
+      <c r="F61" s="0" t="n">
         <f aca="false">C61-B61</f>
         <v>0.713194444444444</v>
       </c>
@@ -5042,20 +3983,20 @@
       <c r="A62" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="C62" s="4" t="n">
+      <c r="C62" s="3" t="n">
         <f aca="false">B62+E62</f>
         <v>42431.7541666667</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F62" s="3" t="n">
+      <c r="F62" s="0" t="n">
         <f aca="false">C62-B62</f>
         <v>0.754166666666667</v>
       </c>
@@ -5095,20 +4036,20 @@
       <c r="A63" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C63" s="4" t="n">
+      <c r="C63" s="3" t="n">
         <f aca="false">B63+E63</f>
         <v>42306.2569444445</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="3" t="n">
+      <c r="F63" s="0" t="n">
         <f aca="false">C63-B63</f>
         <v>0.256944444444444</v>
       </c>
@@ -5130,20 +4071,20 @@
       <c r="A64" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C64" s="4" t="n">
+      <c r="C64" s="3" t="n">
         <f aca="false">B64+E64</f>
         <v>42306.2916666667</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="3" t="n">
+      <c r="F64" s="0" t="n">
         <f aca="false">C64-B64</f>
         <v>0.291666666666667</v>
       </c>
@@ -5183,20 +4124,20 @@
       <c r="A65" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C65" s="4" t="n">
+      <c r="C65" s="3" t="n">
         <f aca="false">B65+E65</f>
         <v>42306.3402777778</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="3" t="n">
+      <c r="F65" s="0" t="n">
         <f aca="false">C65-B65</f>
         <v>0.340277777777778</v>
       </c>
@@ -5236,20 +4177,20 @@
       <c r="A66" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C66" s="4" t="n">
+      <c r="C66" s="3" t="n">
         <f aca="false">B66+E66</f>
         <v>42306.3798611111</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="3" t="n">
+      <c r="F66" s="0" t="n">
         <f aca="false">C66-B66</f>
         <v>0.379861111111111</v>
       </c>
@@ -5289,20 +4230,20 @@
       <c r="A67" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C67" s="4" t="n">
+      <c r="C67" s="3" t="n">
         <f aca="false">B67+E67</f>
         <v>42306.4173611111</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F67" s="3" t="n">
+      <c r="F67" s="0" t="n">
         <f aca="false">C67-B67</f>
         <v>0.417361111111111</v>
       </c>
@@ -5342,20 +4283,20 @@
       <c r="A68" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C68" s="4" t="n">
+      <c r="C68" s="3" t="n">
         <f aca="false">B68+E68</f>
         <v>42306.50625</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F68" s="3" t="n">
+      <c r="F68" s="0" t="n">
         <f aca="false">C68-B68</f>
         <v>0.50625</v>
       </c>
@@ -5395,20 +4336,20 @@
       <c r="A69" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C69" s="4" t="n">
+      <c r="C69" s="3" t="n">
         <f aca="false">B69+E69</f>
         <v>42306.5479166667</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F69" s="3" t="n">
+      <c r="F69" s="0" t="n">
         <f aca="false">C69-B69</f>
         <v>0.547916666666667</v>
       </c>
@@ -5448,20 +4389,20 @@
       <c r="A70" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C70" s="4" t="n">
+      <c r="C70" s="3" t="n">
         <f aca="false">B70+E70</f>
         <v>42306.5868055556</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F70" s="3" t="n">
+      <c r="F70" s="0" t="n">
         <f aca="false">C70-B70</f>
         <v>0.586805555555556</v>
       </c>
@@ -5501,20 +4442,20 @@
       <c r="A71" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C71" s="4" t="n">
+      <c r="C71" s="3" t="n">
         <f aca="false">B71+E71</f>
         <v>42306.6305555556</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="3" t="n">
+      <c r="F71" s="0" t="n">
         <f aca="false">C71-B71</f>
         <v>0.630555555555556</v>
       </c>
@@ -5554,20 +4495,20 @@
       <c r="A72" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C72" s="4" t="n">
+      <c r="C72" s="3" t="n">
         <f aca="false">B72+E72</f>
         <v>42306.6736111111</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F72" s="3" t="n">
+      <c r="F72" s="0" t="n">
         <f aca="false">C72-B72</f>
         <v>0.673611111111111</v>
       </c>
@@ -5607,20 +4548,20 @@
       <c r="A73" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C73" s="4" t="n">
+      <c r="C73" s="3" t="n">
         <f aca="false">B73+E73</f>
         <v>42306.7118055556</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="3" t="n">
+      <c r="F73" s="0" t="n">
         <f aca="false">C73-B73</f>
         <v>0.711805555555556</v>
       </c>
@@ -5660,20 +4601,20 @@
       <c r="A74" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C74" s="4" t="n">
+      <c r="C74" s="3" t="n">
         <f aca="false">B74+E74</f>
         <v>42306.7673611111</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>50129950</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="3" t="n">
+      <c r="F74" s="0" t="n">
         <f aca="false">C74-B74</f>
         <v>0.767361111111111</v>
       </c>
@@ -5713,20 +4654,20 @@
       <c r="A75" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C75" s="4" t="n">
+      <c r="C75" s="3" t="n">
         <f aca="false">B75+E75</f>
         <v>42306.2673611111</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F75" s="3" t="n">
+      <c r="F75" s="0" t="n">
         <f aca="false">C75-B75</f>
         <v>0.267361111111111</v>
       </c>
@@ -5748,20 +4689,20 @@
       <c r="A76" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C76" s="4" t="n">
+      <c r="C76" s="3" t="n">
         <f aca="false">B76+E76</f>
         <v>42306.3027777778</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F76" s="3" t="n">
+      <c r="F76" s="0" t="n">
         <f aca="false">C76-B76</f>
         <v>0.302777777777778</v>
       </c>
@@ -5801,20 +4742,20 @@
       <c r="A77" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C77" s="4" t="n">
+      <c r="C77" s="3" t="n">
         <f aca="false">B77+E77</f>
         <v>42306.3479166667</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F77" s="3" t="n">
+      <c r="F77" s="0" t="n">
         <f aca="false">C77-B77</f>
         <v>0.347916666666667</v>
       </c>
@@ -5854,20 +4795,20 @@
       <c r="A78" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C78" s="4" t="n">
+      <c r="C78" s="3" t="n">
         <f aca="false">B78+E78</f>
         <v>42306.3881944444</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F78" s="3" t="n">
+      <c r="F78" s="0" t="n">
         <f aca="false">C78-B78</f>
         <v>0.388194444444444</v>
       </c>
@@ -5907,20 +4848,20 @@
       <c r="A79" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C79" s="4" t="n">
+      <c r="C79" s="3" t="n">
         <f aca="false">B79+E79</f>
         <v>42306.425</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F79" s="3" t="n">
+      <c r="F79" s="0" t="n">
         <f aca="false">C79-B79</f>
         <v>0.425</v>
       </c>
@@ -5960,20 +4901,20 @@
       <c r="A80" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C80" s="4" t="n">
+      <c r="C80" s="3" t="n">
         <f aca="false">B80+E80</f>
         <v>42306.5173611111</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F80" s="3" t="n">
+      <c r="F80" s="0" t="n">
         <f aca="false">C80-B80</f>
         <v>0.517361111111111</v>
       </c>
@@ -6013,20 +4954,20 @@
       <c r="A81" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C81" s="4" t="n">
+      <c r="C81" s="3" t="n">
         <f aca="false">B81+E81</f>
         <v>42306.5569444444</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="3" t="n">
+      <c r="F81" s="0" t="n">
         <f aca="false">C81-B81</f>
         <v>0.556944444444444</v>
       </c>
@@ -6066,20 +5007,20 @@
       <c r="A82" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C82" s="4" t="n">
+      <c r="C82" s="3" t="n">
         <f aca="false">B82+E82</f>
         <v>42306.5944444445</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F82" s="3" t="n">
+      <c r="F82" s="0" t="n">
         <f aca="false">C82-B82</f>
         <v>0.594444444444444</v>
       </c>
@@ -6119,20 +5060,20 @@
       <c r="A83" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C83" s="4" t="n">
+      <c r="C83" s="3" t="n">
         <f aca="false">B83+E83</f>
         <v>42306.6361111111</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F83" s="3" t="n">
+      <c r="F83" s="0" t="n">
         <f aca="false">C83-B83</f>
         <v>0.636111111111111</v>
       </c>
@@ -6172,20 +5113,20 @@
       <c r="A84" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C84" s="4" t="n">
+      <c r="C84" s="3" t="n">
         <f aca="false">B84+E84</f>
         <v>42306.68125</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F84" s="3" t="n">
+      <c r="F84" s="0" t="n">
         <f aca="false">C84-B84</f>
         <v>0.68125</v>
       </c>
@@ -6225,20 +5166,20 @@
       <c r="A85" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C85" s="4" t="n">
+      <c r="C85" s="3" t="n">
         <f aca="false">B85+E85</f>
         <v>42306.7194444444</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F85" s="3" t="n">
+      <c r="F85" s="0" t="n">
         <f aca="false">C85-B85</f>
         <v>0.719444444444444</v>
       </c>
@@ -6278,20 +5219,20 @@
       <c r="A86" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C86" s="4" t="n">
+      <c r="C86" s="3" t="n">
         <f aca="false">B86+E86</f>
         <v>42306.775</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>50129945</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F86" s="3" t="n">
+      <c r="F86" s="0" t="n">
         <f aca="false">C86-B86</f>
         <v>0.775</v>
       </c>
@@ -6331,20 +5272,20 @@
       <c r="A87" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C87" s="4" t="n">
+      <c r="C87" s="3" t="n">
         <f aca="false">B87+E87</f>
         <v>42306.2715277778</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F87" s="3" t="n">
+      <c r="F87" s="0" t="n">
         <f aca="false">C87-B87</f>
         <v>0.271527777777778</v>
       </c>
@@ -6366,20 +5307,20 @@
       <c r="A88" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C88" s="4" t="n">
+      <c r="C88" s="3" t="n">
         <f aca="false">B88+E88</f>
         <v>42306.3069444444</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F88" s="3" t="n">
+      <c r="F88" s="0" t="n">
         <f aca="false">C88-B88</f>
         <v>0.306944444444444</v>
       </c>
@@ -6419,20 +5360,20 @@
       <c r="A89" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C89" s="4" t="n">
+      <c r="C89" s="3" t="n">
         <f aca="false">B89+E89</f>
         <v>42306.3513888889</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F89" s="3" t="n">
+      <c r="F89" s="0" t="n">
         <f aca="false">C89-B89</f>
         <v>0.351388888888889</v>
       </c>
@@ -6472,20 +5413,20 @@
       <c r="A90" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C90" s="4" t="n">
+      <c r="C90" s="3" t="n">
         <f aca="false">B90+E90</f>
         <v>42306.39375</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F90" s="3" t="n">
+      <c r="F90" s="0" t="n">
         <f aca="false">C90-B90</f>
         <v>0.39375</v>
       </c>
@@ -6525,20 +5466,20 @@
       <c r="A91" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C91" s="4" t="n">
+      <c r="C91" s="3" t="n">
         <f aca="false">B91+E91</f>
         <v>42306.4298611111</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F91" s="3" t="n">
+      <c r="F91" s="0" t="n">
         <f aca="false">C91-B91</f>
         <v>0.429861111111111</v>
       </c>
@@ -6578,20 +5519,20 @@
       <c r="A92" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C92" s="4" t="n">
+      <c r="C92" s="3" t="n">
         <f aca="false">B92+E92</f>
         <v>42306.5222222222</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F92" s="3" t="n">
+      <c r="F92" s="0" t="n">
         <f aca="false">C92-B92</f>
         <v>0.522222222222222</v>
       </c>
@@ -6631,20 +5572,20 @@
       <c r="A93" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C93" s="4" t="n">
+      <c r="C93" s="3" t="n">
         <f aca="false">B93+E93</f>
         <v>42306.5604166667</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F93" s="3" t="n">
+      <c r="F93" s="0" t="n">
         <f aca="false">C93-B93</f>
         <v>0.560416666666667</v>
       </c>
@@ -6684,20 +5625,20 @@
       <c r="A94" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C94" s="4" t="n">
+      <c r="C94" s="3" t="n">
         <f aca="false">B94+E94</f>
         <v>42306.5972222222</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="3" t="n">
+      <c r="F94" s="0" t="n">
         <f aca="false">C94-B94</f>
         <v>0.597222222222222</v>
       </c>
@@ -6737,20 +5678,20 @@
       <c r="A95" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C95" s="4" t="n">
+      <c r="C95" s="3" t="n">
         <f aca="false">B95+E95</f>
         <v>42306.6395833333</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F95" s="3" t="n">
+      <c r="F95" s="0" t="n">
         <f aca="false">C95-B95</f>
         <v>0.639583333333333</v>
       </c>
@@ -6790,20 +5731,20 @@
       <c r="A96" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C96" s="4" t="n">
+      <c r="C96" s="3" t="n">
         <f aca="false">B96+E96</f>
         <v>42306.6847222222</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F96" s="3" t="n">
+      <c r="F96" s="0" t="n">
         <f aca="false">C96-B96</f>
         <v>0.684722222222222</v>
       </c>
@@ -6843,20 +5784,20 @@
       <c r="A97" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C97" s="4" t="n">
+      <c r="C97" s="3" t="n">
         <f aca="false">B97+E97</f>
         <v>42306.7243055556</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F97" s="3" t="n">
+      <c r="F97" s="0" t="n">
         <f aca="false">C97-B97</f>
         <v>0.724305555555556</v>
       </c>
@@ -6896,20 +5837,20 @@
       <c r="A98" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C98" s="4" t="n">
+      <c r="C98" s="3" t="n">
         <f aca="false">B98+E98</f>
         <v>42306.7784722222</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>50129935</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F98" s="3" t="n">
+      <c r="F98" s="0" t="n">
         <f aca="false">C98-B98</f>
         <v>0.778472222222222</v>
       </c>
@@ -6949,20 +5890,20 @@
       <c r="A99" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C99" s="4" t="n">
+      <c r="C99" s="3" t="n">
         <f aca="false">B99+E99</f>
         <v>42306.2618055556</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F99" s="3" t="n">
+      <c r="F99" s="0" t="n">
         <f aca="false">C99-B99</f>
         <v>0.261805555555556</v>
       </c>
@@ -6984,20 +5925,20 @@
       <c r="A100" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C100" s="4" t="n">
+      <c r="C100" s="3" t="n">
         <f aca="false">B100+E100</f>
         <v>42306.2986111111</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F100" s="3" t="n">
+      <c r="F100" s="0" t="n">
         <f aca="false">C100-B100</f>
         <v>0.298611111111111</v>
       </c>
@@ -7037,20 +5978,20 @@
       <c r="A101" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C101" s="4" t="n">
+      <c r="C101" s="3" t="n">
         <f aca="false">B101+E101</f>
         <v>42306.3430555556</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F101" s="3" t="n">
+      <c r="F101" s="0" t="n">
         <f aca="false">C101-B101</f>
         <v>0.343055555555556</v>
       </c>
@@ -7090,20 +6031,20 @@
       <c r="A102" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C102" s="4" t="n">
+      <c r="C102" s="3" t="n">
         <f aca="false">B102+E102</f>
         <v>42306.3840277778</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F102" s="3" t="n">
+      <c r="F102" s="0" t="n">
         <f aca="false">C102-B102</f>
         <v>0.384027777777778</v>
       </c>
@@ -7143,20 +6084,20 @@
       <c r="A103" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C103" s="4" t="n">
+      <c r="C103" s="3" t="n">
         <f aca="false">B103+E103</f>
         <v>42306.4208333333</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F103" s="3" t="n">
+      <c r="F103" s="0" t="n">
         <f aca="false">C103-B103</f>
         <v>0.420833333333333</v>
       </c>
@@ -7196,20 +6137,20 @@
       <c r="A104" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C104" s="4" t="n">
+      <c r="C104" s="3" t="n">
         <f aca="false">B104+E104</f>
         <v>42306.5118055556</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F104" s="3" t="n">
+      <c r="F104" s="0" t="n">
         <f aca="false">C104-B104</f>
         <v>0.511805555555555</v>
       </c>
@@ -7249,20 +6190,20 @@
       <c r="A105" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C105" s="4" t="n">
+      <c r="C105" s="3" t="n">
         <f aca="false">B105+E105</f>
         <v>42306.5527777778</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F105" s="3" t="n">
+      <c r="F105" s="0" t="n">
         <f aca="false">C105-B105</f>
         <v>0.552777777777778</v>
       </c>
@@ -7302,20 +6243,20 @@
       <c r="A106" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C106" s="4" t="n">
+      <c r="C106" s="3" t="n">
         <f aca="false">B106+E106</f>
         <v>42306.5902777778</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F106" s="3" t="n">
+      <c r="F106" s="0" t="n">
         <f aca="false">C106-B106</f>
         <v>0.590277777777778</v>
       </c>
@@ -7355,20 +6296,20 @@
       <c r="A107" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C107" s="4" t="n">
+      <c r="C107" s="3" t="n">
         <f aca="false">B107+E107</f>
         <v>42306.6333333333</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F107" s="3" t="n">
+      <c r="F107" s="0" t="n">
         <f aca="false">C107-B107</f>
         <v>0.633333333333333</v>
       </c>
@@ -7408,20 +6349,20 @@
       <c r="A108" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C108" s="4" t="n">
+      <c r="C108" s="3" t="n">
         <f aca="false">B108+E108</f>
         <v>42306.6770833333</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F108" s="3" t="n">
+      <c r="F108" s="0" t="n">
         <f aca="false">C108-B108</f>
         <v>0.677083333333333</v>
       </c>
@@ -7461,20 +6402,20 @@
       <c r="A109" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C109" s="4" t="n">
+      <c r="C109" s="3" t="n">
         <f aca="false">B109+E109</f>
         <v>42306.7159722222</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F109" s="3" t="n">
+      <c r="F109" s="0" t="n">
         <f aca="false">C109-B109</f>
         <v>0.715972222222222</v>
       </c>
@@ -7514,20 +6455,20 @@
       <c r="A110" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C110" s="4" t="n">
+      <c r="C110" s="3" t="n">
         <f aca="false">B110+E110</f>
         <v>42306.7715277778</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>50129948</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F110" s="3" t="n">
+      <c r="F110" s="0" t="n">
         <f aca="false">C110-B110</f>
         <v>0.771527777777778</v>
       </c>
@@ -7567,20 +6508,20 @@
       <c r="A111" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C111" s="4" t="n">
+      <c r="C111" s="3" t="n">
         <f aca="false">B111+E111</f>
         <v>42306.25</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F111" s="3" t="n">
+      <c r="F111" s="0" t="n">
         <f aca="false">C111-B111</f>
         <v>0.25</v>
       </c>
@@ -7602,20 +6543,20 @@
       <c r="A112" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C112" s="4" t="n">
+      <c r="C112" s="3" t="n">
         <f aca="false">B112+E112</f>
         <v>42306.2916666667</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F112" s="3" t="n">
+      <c r="F112" s="0" t="n">
         <f aca="false">C112-B112</f>
         <v>0.291666666666667</v>
       </c>
@@ -7655,20 +6596,20 @@
       <c r="A113" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C113" s="4" t="n">
+      <c r="C113" s="3" t="n">
         <f aca="false">B113+E113</f>
         <v>42306.3333333333</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F113" s="3" t="n">
+      <c r="F113" s="0" t="n">
         <f aca="false">C113-B113</f>
         <v>0.333333333333333</v>
       </c>
@@ -7708,20 +6649,20 @@
       <c r="A114" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C114" s="4" t="n">
+      <c r="C114" s="3" t="n">
         <f aca="false">B114+E114</f>
         <v>42306.3722222222</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F114" s="3" t="n">
+      <c r="F114" s="0" t="n">
         <f aca="false">C114-B114</f>
         <v>0.372222222222222</v>
       </c>
@@ -7761,20 +6702,20 @@
       <c r="A115" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C115" s="4" t="n">
+      <c r="C115" s="3" t="n">
         <f aca="false">B115+E115</f>
         <v>42306.4125</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F115" s="3" t="n">
+      <c r="F115" s="0" t="n">
         <f aca="false">C115-B115</f>
         <v>0.4125</v>
       </c>
@@ -7814,20 +6755,20 @@
       <c r="A116" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C116" s="4" t="n">
+      <c r="C116" s="3" t="n">
         <f aca="false">B116+E116</f>
         <v>42306.5</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F116" s="3" t="n">
+      <c r="F116" s="0" t="n">
         <f aca="false">C116-B116</f>
         <v>0.5</v>
       </c>
@@ -7867,20 +6808,20 @@
       <c r="A117" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C117" s="4" t="n">
+      <c r="C117" s="3" t="n">
         <f aca="false">B117+E117</f>
         <v>42306.5423611111</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F117" s="3" t="n">
+      <c r="F117" s="0" t="n">
         <f aca="false">C117-B117</f>
         <v>0.542361111111111</v>
       </c>
@@ -7920,20 +6861,20 @@
       <c r="A118" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C118" s="4" t="n">
+      <c r="C118" s="3" t="n">
         <f aca="false">B118+E118</f>
         <v>42306.5819444444</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F118" s="3" t="n">
+      <c r="F118" s="0" t="n">
         <f aca="false">C118-B118</f>
         <v>0.581944444444444</v>
       </c>
@@ -7973,20 +6914,20 @@
       <c r="A119" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C119" s="4" t="n">
+      <c r="C119" s="3" t="n">
         <f aca="false">B119+E119</f>
         <v>42306.6236111111</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F119" s="3" t="n">
+      <c r="F119" s="0" t="n">
         <f aca="false">C119-B119</f>
         <v>0.623611111111111</v>
       </c>
@@ -8026,20 +6967,20 @@
       <c r="A120" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C120" s="4" t="n">
+      <c r="C120" s="3" t="n">
         <f aca="false">B120+E120</f>
         <v>42306.6673611111</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F120" s="3" t="n">
+      <c r="F120" s="0" t="n">
         <f aca="false">C120-B120</f>
         <v>0.667361111111111</v>
       </c>
@@ -8079,20 +7020,20 @@
       <c r="A121" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C121" s="4" t="n">
+      <c r="C121" s="3" t="n">
         <f aca="false">B121+E121</f>
         <v>42306.7069444444</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F121" s="3" t="n">
+      <c r="F121" s="0" t="n">
         <f aca="false">C121-B121</f>
         <v>0.706944444444444</v>
       </c>
@@ -8132,20 +7073,20 @@
       <c r="A122" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>42306</v>
       </c>
-      <c r="C122" s="4" t="n">
+      <c r="C122" s="3" t="n">
         <f aca="false">B122+E122</f>
         <v>42306.7208333333</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>50129960</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F122" s="3" t="n">
+      <c r="F122" s="0" t="n">
         <f aca="false">C122-B122</f>
         <v>0.720833333333333</v>
       </c>
@@ -8185,20 +7126,20 @@
       <c r="A123" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C123" s="4" t="n">
+      <c r="C123" s="3" t="n">
         <f aca="false">B123+E123</f>
         <v>42438.2972222222</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E123" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F123" s="3" t="n">
+      <c r="F123" s="0" t="n">
         <f aca="false">C123-B123</f>
         <v>0.297222222222222</v>
       </c>
@@ -8220,20 +7161,20 @@
       <c r="A124" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C124" s="4" t="n">
+      <c r="C124" s="3" t="n">
         <f aca="false">B124+E124</f>
         <v>42438.3388888889</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F124" s="3" t="n">
+      <c r="F124" s="0" t="n">
         <f aca="false">C124-B124</f>
         <v>0.338888888888889</v>
       </c>
@@ -8273,20 +7214,20 @@
       <c r="A125" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C125" s="4" t="n">
+      <c r="C125" s="3" t="n">
         <f aca="false">B125+E125</f>
         <v>42438.38125</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F125" s="3" t="n">
+      <c r="F125" s="0" t="n">
         <f aca="false">C125-B125</f>
         <v>0.38125</v>
       </c>
@@ -8326,20 +7267,20 @@
       <c r="A126" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C126" s="4" t="n">
+      <c r="C126" s="3" t="n">
         <f aca="false">B126+E126</f>
         <v>42438.425</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F126" s="3" t="n">
+      <c r="F126" s="0" t="n">
         <f aca="false">C126-B126</f>
         <v>0.425</v>
       </c>
@@ -8379,20 +7320,20 @@
       <c r="A127" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C127" s="4" t="n">
+      <c r="C127" s="3" t="n">
         <f aca="false">B127+E127</f>
         <v>42438.4673611111</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F127" s="3" t="n">
+      <c r="F127" s="0" t="n">
         <f aca="false">C127-B127</f>
         <v>0.467361111111111</v>
       </c>
@@ -8432,20 +7373,20 @@
       <c r="A128" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C128" s="4" t="n">
+      <c r="C128" s="3" t="n">
         <f aca="false">B128+E128</f>
         <v>42438.5013888889</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F128" s="3" t="n">
+      <c r="F128" s="0" t="n">
         <f aca="false">C128-B128</f>
         <v>0.501388888888889</v>
       </c>
@@ -8485,20 +7426,20 @@
       <c r="A129" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C129" s="4" t="n">
+      <c r="C129" s="3" t="n">
         <f aca="false">B129+E129</f>
         <v>42438.5930555556</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F129" s="3" t="n">
+      <c r="F129" s="0" t="n">
         <f aca="false">C129-B129</f>
         <v>0.593055555555556</v>
       </c>
@@ -8538,20 +7479,20 @@
       <c r="A130" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C130" s="4" t="n">
+      <c r="C130" s="3" t="n">
         <f aca="false">B130+E130</f>
         <v>42438.6333333333</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E130" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F130" s="3" t="n">
+      <c r="F130" s="0" t="n">
         <f aca="false">C130-B130</f>
         <v>0.633333333333333</v>
       </c>
@@ -8591,20 +7532,20 @@
       <c r="A131" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C131" s="4" t="n">
+      <c r="C131" s="3" t="n">
         <f aca="false">B131+E131</f>
         <v>42438.675</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F131" s="3" t="n">
+      <c r="F131" s="0" t="n">
         <f aca="false">C131-B131</f>
         <v>0.675</v>
       </c>
@@ -8644,20 +7585,20 @@
       <c r="A132" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C132" s="4" t="n">
+      <c r="C132" s="3" t="n">
         <f aca="false">B132+E132</f>
         <v>42438.7159722222</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="E132" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F132" s="3" t="n">
+      <c r="F132" s="0" t="n">
         <f aca="false">C132-B132</f>
         <v>0.715972222222222</v>
       </c>
@@ -8697,20 +7638,20 @@
       <c r="A133" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C133" s="4" t="n">
+      <c r="C133" s="3" t="n">
         <f aca="false">B133+E133</f>
         <v>42438.7715277778</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E133" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F133" s="3" t="n">
+      <c r="F133" s="0" t="n">
         <f aca="false">C133-B133</f>
         <v>0.771527777777778</v>
       </c>
@@ -8750,20 +7691,20 @@
       <c r="A134" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C134" s="4" t="n">
+      <c r="C134" s="3" t="n">
         <f aca="false">B134+E134</f>
         <v>42438.7979166667</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E134" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F134" s="3" t="n">
+      <c r="F134" s="0" t="n">
         <f aca="false">C134-B134</f>
         <v>0.797916666666667</v>
       </c>
@@ -8803,20 +7744,20 @@
       <c r="A135" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C135" s="4" t="n">
+      <c r="C135" s="3" t="n">
         <f aca="false">B135+E135</f>
         <v>42438.81875</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F135" s="3" t="n">
+      <c r="F135" s="0" t="n">
         <f aca="false">C135-B135</f>
         <v>0.81875</v>
       </c>
@@ -8856,20 +7797,20 @@
       <c r="A136" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C136" s="4" t="n">
+      <c r="C136" s="3" t="n">
         <f aca="false">B136+E136</f>
         <v>42438.2951388889</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F136" s="3" t="n">
+      <c r="F136" s="0" t="n">
         <f aca="false">C136-B136</f>
         <v>0.295138888888889</v>
       </c>
@@ -8891,20 +7832,20 @@
       <c r="A137" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C137" s="4" t="n">
+      <c r="C137" s="3" t="n">
         <f aca="false">B137+E137</f>
         <v>42438.3361111111</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F137" s="3" t="n">
+      <c r="F137" s="0" t="n">
         <f aca="false">C137-B137</f>
         <v>0.336111111111111</v>
       </c>
@@ -8944,20 +7885,20 @@
       <c r="A138" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C138" s="4" t="n">
+      <c r="C138" s="3" t="n">
         <f aca="false">B138+E138</f>
         <v>42438.3784722222</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F138" s="3" t="n">
+      <c r="F138" s="0" t="n">
         <f aca="false">C138-B138</f>
         <v>0.378472222222222</v>
       </c>
@@ -8997,20 +7938,20 @@
       <c r="A139" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C139" s="4" t="n">
+      <c r="C139" s="3" t="n">
         <f aca="false">B139+E139</f>
         <v>42438.4229166667</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="E139" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F139" s="3" t="n">
+      <c r="F139" s="0" t="n">
         <f aca="false">C139-B139</f>
         <v>0.422916666666667</v>
       </c>
@@ -9050,20 +7991,20 @@
       <c r="A140" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C140" s="4" t="n">
+      <c r="C140" s="3" t="n">
         <f aca="false">B140+E140</f>
         <v>42438.4645833333</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F140" s="3" t="n">
+      <c r="F140" s="0" t="n">
         <f aca="false">C140-B140</f>
         <v>0.464583333333333</v>
       </c>
@@ -9103,20 +8044,20 @@
       <c r="A141" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C141" s="4" t="n">
+      <c r="C141" s="3" t="n">
         <f aca="false">B141+E141</f>
         <v>42438.4986111111</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F141" s="3" t="n">
+      <c r="F141" s="0" t="n">
         <f aca="false">C141-B141</f>
         <v>0.498611111111111</v>
       </c>
@@ -9156,20 +8097,20 @@
       <c r="A142" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C142" s="4" t="n">
+      <c r="C142" s="3" t="n">
         <f aca="false">B142+E142</f>
         <v>42438.5895833333</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E142" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F142" s="3" t="n">
+      <c r="F142" s="0" t="n">
         <f aca="false">C142-B142</f>
         <v>0.589583333333333</v>
       </c>
@@ -9209,20 +8150,20 @@
       <c r="A143" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C143" s="4" t="n">
+      <c r="C143" s="3" t="n">
         <f aca="false">B143+E143</f>
         <v>42438.6305555556</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="E143" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F143" s="3" t="n">
+      <c r="F143" s="0" t="n">
         <f aca="false">C143-B143</f>
         <v>0.630555555555556</v>
       </c>
@@ -9262,20 +8203,20 @@
       <c r="A144" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C144" s="4" t="n">
+      <c r="C144" s="3" t="n">
         <f aca="false">B144+E144</f>
         <v>42438.6715277778</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E144" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F144" s="3" t="n">
+      <c r="F144" s="0" t="n">
         <f aca="false">C144-B144</f>
         <v>0.671527777777778</v>
       </c>
@@ -9315,20 +8256,20 @@
       <c r="A145" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C145" s="4" t="n">
+      <c r="C145" s="3" t="n">
         <f aca="false">B145+E145</f>
         <v>42438.7131944444</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F145" s="3" t="n">
+      <c r="F145" s="0" t="n">
         <f aca="false">C145-B145</f>
         <v>0.713194444444444</v>
       </c>
@@ -9368,20 +8309,20 @@
       <c r="A146" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C146" s="4" t="n">
+      <c r="C146" s="3" t="n">
         <f aca="false">B146+E146</f>
         <v>42438.7770833333</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E146" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F146" s="3" t="n">
+      <c r="F146" s="0" t="n">
         <f aca="false">C146-B146</f>
         <v>0.777083333333333</v>
       </c>
@@ -9421,20 +8362,20 @@
       <c r="A147" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C147" s="4" t="n">
+      <c r="C147" s="3" t="n">
         <f aca="false">B147+E147</f>
         <v>42438.8055555556</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E147" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F147" s="3" t="n">
+      <c r="F147" s="0" t="n">
         <f aca="false">C147-B147</f>
         <v>0.805555555555556</v>
       </c>
@@ -9474,20 +8415,20 @@
       <c r="A148" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C148" s="4" t="n">
+      <c r="C148" s="3" t="n">
         <f aca="false">B148+E148</f>
         <v>42438.3006944444</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E148" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F148" s="3" t="n">
+      <c r="F148" s="0" t="n">
         <f aca="false">C148-B148</f>
         <v>0.300694444444444</v>
       </c>
@@ -9509,20 +8450,20 @@
       <c r="A149" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C149" s="4" t="n">
+      <c r="C149" s="3" t="n">
         <f aca="false">B149+E149</f>
         <v>42438.3423611111</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E149" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F149" s="3" t="n">
+      <c r="F149" s="0" t="n">
         <f aca="false">C149-B149</f>
         <v>0.342361111111111</v>
       </c>
@@ -9562,20 +8503,20 @@
       <c r="A150" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C150" s="4" t="n">
+      <c r="C150" s="3" t="n">
         <f aca="false">B150+E150</f>
         <v>42438.3847222222</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E150" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F150" s="3" t="n">
+      <c r="F150" s="0" t="n">
         <f aca="false">C150-B150</f>
         <v>0.384722222222222</v>
       </c>
@@ -9615,20 +8556,20 @@
       <c r="A151" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C151" s="4" t="n">
+      <c r="C151" s="3" t="n">
         <f aca="false">B151+E151</f>
         <v>42438.4284722222</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E151" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F151" s="3" t="n">
+      <c r="F151" s="0" t="n">
         <f aca="false">C151-B151</f>
         <v>0.428472222222222</v>
       </c>
@@ -9668,20 +8609,20 @@
       <c r="A152" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C152" s="4" t="n">
+      <c r="C152" s="3" t="n">
         <f aca="false">B152+E152</f>
         <v>42438.4708333333</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E152" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F152" s="3" t="n">
+      <c r="F152" s="0" t="n">
         <f aca="false">C152-B152</f>
         <v>0.470833333333333</v>
       </c>
@@ -9721,20 +8662,20 @@
       <c r="A153" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C153" s="4" t="n">
+      <c r="C153" s="3" t="n">
         <f aca="false">B153+E153</f>
         <v>42438.5048611111</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E153" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F153" s="3" t="n">
+      <c r="F153" s="0" t="n">
         <f aca="false">C153-B153</f>
         <v>0.504861111111111</v>
       </c>
@@ -9774,20 +8715,20 @@
       <c r="A154" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C154" s="4" t="n">
+      <c r="C154" s="3" t="n">
         <f aca="false">B154+E154</f>
         <v>42438.5965277778</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F154" s="3" t="n">
+      <c r="F154" s="0" t="n">
         <f aca="false">C154-B154</f>
         <v>0.596527777777778</v>
       </c>
@@ -9827,20 +8768,20 @@
       <c r="A155" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C155" s="4" t="n">
+      <c r="C155" s="3" t="n">
         <f aca="false">B155+E155</f>
         <v>42438.6375</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F155" s="3" t="n">
+      <c r="F155" s="0" t="n">
         <f aca="false">C155-B155</f>
         <v>0.6375</v>
       </c>
@@ -9880,20 +8821,20 @@
       <c r="A156" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C156" s="4" t="n">
+      <c r="C156" s="3" t="n">
         <f aca="false">B156+E156</f>
         <v>42438.6798611111</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F156" s="3" t="n">
+      <c r="F156" s="0" t="n">
         <f aca="false">C156-B156</f>
         <v>0.679861111111111</v>
       </c>
@@ -9933,20 +8874,20 @@
       <c r="A157" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C157" s="4" t="n">
+      <c r="C157" s="3" t="n">
         <f aca="false">B157+E157</f>
         <v>42438.7201388889</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F157" s="3" t="n">
+      <c r="F157" s="0" t="n">
         <f aca="false">C157-B157</f>
         <v>0.720138888888889</v>
       </c>
@@ -9986,20 +8927,20 @@
       <c r="A158" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C158" s="4" t="n">
+      <c r="C158" s="3" t="n">
         <f aca="false">B158+E158</f>
         <v>42438.7604166667</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F158" s="3" t="n">
+      <c r="F158" s="0" t="n">
         <f aca="false">C158-B158</f>
         <v>0.760416666666667</v>
       </c>
@@ -10039,20 +8980,20 @@
       <c r="A159" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C159" s="4" t="n">
+      <c r="C159" s="3" t="n">
         <f aca="false">B159+E159</f>
         <v>42438.7861111111</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F159" s="3" t="n">
+      <c r="F159" s="0" t="n">
         <f aca="false">C159-B159</f>
         <v>0.786111111111111</v>
       </c>
@@ -10092,20 +9033,20 @@
       <c r="A160" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C160" s="4" t="n">
+      <c r="C160" s="3" t="n">
         <f aca="false">B160+E160</f>
         <v>42438.3055555556</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F160" s="3" t="n">
+      <c r="F160" s="0" t="n">
         <f aca="false">C160-B160</f>
         <v>0.305555555555556</v>
       </c>
@@ -10127,20 +9068,20 @@
       <c r="A161" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C161" s="4" t="n">
+      <c r="C161" s="3" t="n">
         <f aca="false">B161+E161</f>
         <v>42438.3472222222</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E161" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F161" s="3" t="n">
+      <c r="F161" s="0" t="n">
         <f aca="false">C161-B161</f>
         <v>0.347222222222222</v>
       </c>
@@ -10180,20 +9121,20 @@
       <c r="A162" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C162" s="4" t="n">
+      <c r="C162" s="3" t="n">
         <f aca="false">B162+E162</f>
         <v>42438.3895833333</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="E162" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F162" s="3" t="n">
+      <c r="F162" s="0" t="n">
         <f aca="false">C162-B162</f>
         <v>0.389583333333333</v>
       </c>
@@ -10233,20 +9174,20 @@
       <c r="A163" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C163" s="4" t="n">
+      <c r="C163" s="3" t="n">
         <f aca="false">B163+E163</f>
         <v>42438.4340277778</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F163" s="3" t="n">
+      <c r="F163" s="0" t="n">
         <f aca="false">C163-B163</f>
         <v>0.434027777777778</v>
       </c>
@@ -10286,20 +9227,20 @@
       <c r="A164" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C164" s="4" t="n">
+      <c r="C164" s="3" t="n">
         <f aca="false">B164+E164</f>
         <v>42438.4756944444</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E164" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F164" s="3" t="n">
+      <c r="F164" s="0" t="n">
         <f aca="false">C164-B164</f>
         <v>0.475694444444444</v>
       </c>
@@ -10339,20 +9280,20 @@
       <c r="A165" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C165" s="4" t="n">
+      <c r="C165" s="3" t="n">
         <f aca="false">B165+E165</f>
         <v>42438.5104166667</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F165" s="3" t="n">
+      <c r="F165" s="0" t="n">
         <f aca="false">C165-B165</f>
         <v>0.510416666666667</v>
       </c>
@@ -10392,20 +9333,20 @@
       <c r="A166" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C166" s="4" t="n">
+      <c r="C166" s="3" t="n">
         <f aca="false">B166+E166</f>
         <v>42438.6020833333</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F166" s="3" t="n">
+      <c r="F166" s="0" t="n">
         <f aca="false">C166-B166</f>
         <v>0.602083333333333</v>
       </c>
@@ -10445,20 +9386,20 @@
       <c r="A167" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C167" s="4" t="n">
+      <c r="C167" s="3" t="n">
         <f aca="false">B167+E167</f>
         <v>42438.6430555556</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F167" s="3" t="n">
+      <c r="F167" s="0" t="n">
         <f aca="false">C167-B167</f>
         <v>0.643055555555556</v>
       </c>
@@ -10498,20 +9439,20 @@
       <c r="A168" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C168" s="4" t="n">
+      <c r="C168" s="3" t="n">
         <f aca="false">B168+E168</f>
         <v>42438.6847222222</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F168" s="3" t="n">
+      <c r="F168" s="0" t="n">
         <f aca="false">C168-B168</f>
         <v>0.684722222222222</v>
       </c>
@@ -10551,20 +9492,20 @@
       <c r="A169" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C169" s="4" t="n">
+      <c r="C169" s="3" t="n">
         <f aca="false">B169+E169</f>
         <v>42438.7256944444</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E169" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F169" s="3" t="n">
+      <c r="F169" s="0" t="n">
         <f aca="false">C169-B169</f>
         <v>0.725694444444444</v>
       </c>
@@ -10604,20 +9545,20 @@
       <c r="A170" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C170" s="4" t="n">
+      <c r="C170" s="3" t="n">
         <f aca="false">B170+E170</f>
         <v>42438.7659722222</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F170" s="3" t="n">
+      <c r="F170" s="0" t="n">
         <f aca="false">C170-B170</f>
         <v>0.765972222222222</v>
       </c>
@@ -10657,20 +9598,20 @@
       <c r="A171" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C171" s="4" t="n">
+      <c r="C171" s="3" t="n">
         <f aca="false">B171+E171</f>
         <v>42438.7930555556</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F171" s="3" t="n">
+      <c r="F171" s="0" t="n">
         <f aca="false">C171-B171</f>
         <v>0.793055555555555</v>
       </c>
@@ -10710,20 +9651,20 @@
       <c r="A172" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C172" s="4" t="n">
+      <c r="C172" s="3" t="n">
         <f aca="false">B172+E172</f>
         <v>42438.2909722222</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F172" s="3" t="n">
+      <c r="F172" s="0" t="n">
         <f aca="false">C172-B172</f>
         <v>0.290972222222222</v>
       </c>
@@ -10745,20 +9686,20 @@
       <c r="A173" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C173" s="4" t="n">
+      <c r="C173" s="3" t="n">
         <f aca="false">B173+E173</f>
         <v>42438.3333333333</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F173" s="3" t="n">
+      <c r="F173" s="0" t="n">
         <f aca="false">C173-B173</f>
         <v>0.333333333333333</v>
       </c>
@@ -10798,20 +9739,20 @@
       <c r="A174" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C174" s="4" t="n">
+      <c r="C174" s="3" t="n">
         <f aca="false">B174+E174</f>
         <v>42438.375</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F174" s="3" t="n">
+      <c r="F174" s="0" t="n">
         <f aca="false">C174-B174</f>
         <v>0.375</v>
       </c>
@@ -10851,20 +9792,20 @@
       <c r="A175" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C175" s="4" t="n">
+      <c r="C175" s="3" t="n">
         <f aca="false">B175+E175</f>
         <v>42438.41875</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F175" s="3" t="n">
+      <c r="F175" s="0" t="n">
         <f aca="false">C175-B175</f>
         <v>0.41875</v>
       </c>
@@ -10904,20 +9845,20 @@
       <c r="A176" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C176" s="4" t="n">
+      <c r="C176" s="3" t="n">
         <f aca="false">B176+E176</f>
         <v>42438.4611111111</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F176" s="3" t="n">
+      <c r="F176" s="0" t="n">
         <f aca="false">C176-B176</f>
         <v>0.461111111111111</v>
       </c>
@@ -10957,20 +9898,20 @@
       <c r="A177" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C177" s="4" t="n">
+      <c r="C177" s="3" t="n">
         <f aca="false">B177+E177</f>
         <v>42438.4951388889</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F177" s="3" t="n">
+      <c r="F177" s="0" t="n">
         <f aca="false">C177-B177</f>
         <v>0.495138888888889</v>
       </c>
@@ -11010,20 +9951,20 @@
       <c r="A178" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C178" s="4" t="n">
+      <c r="C178" s="3" t="n">
         <f aca="false">B178+E178</f>
         <v>42438.5868055556</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F178" s="3" t="n">
+      <c r="F178" s="0" t="n">
         <f aca="false">C178-B178</f>
         <v>0.586805555555556</v>
       </c>
@@ -11063,20 +10004,20 @@
       <c r="A179" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C179" s="4" t="n">
+      <c r="C179" s="3" t="n">
         <f aca="false">B179+E179</f>
         <v>42438.6263888889</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F179" s="3" t="n">
+      <c r="F179" s="0" t="n">
         <f aca="false">C179-B179</f>
         <v>0.626388888888889</v>
       </c>
@@ -11116,20 +10057,20 @@
       <c r="A180" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C180" s="4" t="n">
+      <c r="C180" s="3" t="n">
         <f aca="false">B180+E180</f>
         <v>42438.6680555556</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E180" s="5" t="s">
+      <c r="E180" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F180" s="3" t="n">
+      <c r="F180" s="0" t="n">
         <f aca="false">C180-B180</f>
         <v>0.668055555555555</v>
       </c>
@@ -11169,20 +10110,20 @@
       <c r="A181" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C181" s="4" t="n">
+      <c r="C181" s="3" t="n">
         <f aca="false">B181+E181</f>
         <v>42438.7090277778</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E181" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F181" s="3" t="n">
+      <c r="F181" s="0" t="n">
         <f aca="false">C181-B181</f>
         <v>0.709027777777778</v>
       </c>
@@ -11222,20 +10163,20 @@
       <c r="A182" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="C182" s="4" t="n">
+      <c r="C182" s="3" t="n">
         <f aca="false">B182+E182</f>
         <v>42438.7819444445</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E182" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F182" s="3" t="n">
+      <c r="F182" s="0" t="n">
         <f aca="false">C182-B182</f>
         <v>0.781944444444444</v>
       </c>
@@ -11275,20 +10216,20 @@
       <c r="A183" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C183" s="4" t="n">
+      <c r="C183" s="3" t="n">
         <f aca="false">B183+E183</f>
         <v>42691.2666666667</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="E183" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F183" s="3" t="n">
+      <c r="F183" s="0" t="n">
         <f aca="false">C183-B183</f>
         <v>0.266666666666667</v>
       </c>
@@ -11310,20 +10251,20 @@
       <c r="A184" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C184" s="4" t="n">
+      <c r="C184" s="3" t="n">
         <f aca="false">B184+E184</f>
         <v>42691.3090277778</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E184" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F184" s="3" t="n">
+      <c r="F184" s="0" t="n">
         <f aca="false">C184-B184</f>
         <v>0.309027777777778</v>
       </c>
@@ -11363,20 +10304,20 @@
       <c r="A185" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C185" s="4" t="n">
+      <c r="C185" s="3" t="n">
         <f aca="false">B185+E185</f>
         <v>42691.34375</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F185" s="3" t="n">
+      <c r="F185" s="0" t="n">
         <f aca="false">C185-B185</f>
         <v>0.34375</v>
       </c>
@@ -11416,20 +10357,20 @@
       <c r="A186" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C186" s="4" t="n">
+      <c r="C186" s="3" t="n">
         <f aca="false">B186+E186</f>
         <v>42691.3875</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E186" s="5" t="s">
+      <c r="E186" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F186" s="3" t="n">
+      <c r="F186" s="0" t="n">
         <f aca="false">C186-B186</f>
         <v>0.3875</v>
       </c>
@@ -11469,20 +10410,20 @@
       <c r="A187" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C187" s="4" t="n">
+      <c r="C187" s="3" t="n">
         <f aca="false">B187+E187</f>
         <v>42691.4277777778</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="E187" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F187" s="3" t="n">
+      <c r="F187" s="0" t="n">
         <f aca="false">C187-B187</f>
         <v>0.427777777777778</v>
       </c>
@@ -11522,20 +10463,20 @@
       <c r="A188" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C188" s="4" t="n">
+      <c r="C188" s="3" t="n">
         <f aca="false">B188+E188</f>
         <v>42691.4701388889</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="E188" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F188" s="3" t="n">
+      <c r="F188" s="0" t="n">
         <f aca="false">C188-B188</f>
         <v>0.470138888888889</v>
       </c>
@@ -11575,20 +10516,20 @@
       <c r="A189" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C189" s="4" t="n">
+      <c r="C189" s="3" t="n">
         <f aca="false">B189+E189</f>
         <v>42691.5138888889</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F189" s="3" t="n">
+      <c r="F189" s="0" t="n">
         <f aca="false">C189-B189</f>
         <v>0.513888888888889</v>
       </c>
@@ -11628,20 +10569,20 @@
       <c r="A190" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C190" s="4" t="n">
+      <c r="C190" s="3" t="n">
         <f aca="false">B190+E190</f>
         <v>42691.5597222222</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="E190" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F190" s="3" t="n">
+      <c r="F190" s="0" t="n">
         <f aca="false">C190-B190</f>
         <v>0.559722222222222</v>
       </c>
@@ -11681,20 +10622,20 @@
       <c r="A191" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C191" s="4" t="n">
+      <c r="C191" s="3" t="n">
         <f aca="false">B191+E191</f>
         <v>42691.5972222222</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F191" s="3" t="n">
+      <c r="F191" s="0" t="n">
         <f aca="false">C191-B191</f>
         <v>0.597222222222222</v>
       </c>
@@ -11734,20 +10675,20 @@
       <c r="A192" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C192" s="4" t="n">
+      <c r="C192" s="3" t="n">
         <f aca="false">B192+E192</f>
         <v>42691.6381944444</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="E192" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F192" s="3" t="n">
+      <c r="F192" s="0" t="n">
         <f aca="false">C192-B192</f>
         <v>0.638194444444444</v>
       </c>
@@ -11787,20 +10728,20 @@
       <c r="A193" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C193" s="4" t="n">
+      <c r="C193" s="3" t="n">
         <f aca="false">B193+E193</f>
         <v>42691.6798611111</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F193" s="3" t="n">
+      <c r="F193" s="0" t="n">
         <f aca="false">C193-B193</f>
         <v>0.679861111111111</v>
       </c>
@@ -11840,20 +10781,20 @@
       <c r="A194" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C194" s="4" t="n">
+      <c r="C194" s="3" t="n">
         <f aca="false">B194+E194</f>
         <v>42691.7208333333</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F194" s="3" t="n">
+      <c r="F194" s="0" t="n">
         <f aca="false">C194-B194</f>
         <v>0.720833333333333</v>
       </c>
@@ -11893,20 +10834,20 @@
       <c r="A195" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C195" s="4" t="n">
+      <c r="C195" s="3" t="n">
         <f aca="false">B195+E195</f>
         <v>42691.7743055556</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E195" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F195" s="3" t="n">
+      <c r="F195" s="0" t="n">
         <f aca="false">C195-B195</f>
         <v>0.774305555555556</v>
       </c>
@@ -11946,20 +10887,20 @@
       <c r="A196" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C196" s="4" t="n">
+      <c r="C196" s="3" t="n">
         <f aca="false">B196+E196</f>
         <v>42691.8152777778</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>50231510</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F196" s="3" t="n">
+      <c r="F196" s="0" t="n">
         <f aca="false">C196-B196</f>
         <v>0.815277777777778</v>
       </c>
@@ -11999,20 +10940,20 @@
       <c r="A197" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C197" s="4" t="n">
+      <c r="C197" s="3" t="n">
         <f aca="false">B197+E197</f>
         <v>42691.2625</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F197" s="3" t="n">
+      <c r="F197" s="0" t="n">
         <f aca="false">C197-B197</f>
         <v>0.2625</v>
       </c>
@@ -12034,20 +10975,20 @@
       <c r="A198" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C198" s="4" t="n">
+      <c r="C198" s="3" t="n">
         <f aca="false">B198+E198</f>
         <v>42691.3027777778</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E198" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F198" s="3" t="n">
+      <c r="F198" s="0" t="n">
         <f aca="false">C198-B198</f>
         <v>0.302777777777778</v>
       </c>
@@ -12087,20 +11028,20 @@
       <c r="A199" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C199" s="4" t="n">
+      <c r="C199" s="3" t="n">
         <f aca="false">B199+E199</f>
         <v>42691.3402777778</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E199" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F199" s="3" t="n">
+      <c r="F199" s="0" t="n">
         <f aca="false">C199-B199</f>
         <v>0.340277777777778</v>
       </c>
@@ -12140,20 +11081,20 @@
       <c r="A200" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C200" s="4" t="n">
+      <c r="C200" s="3" t="n">
         <f aca="false">B200+E200</f>
         <v>42691.3826388889</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E200" s="5" t="s">
+      <c r="E200" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F200" s="3" t="n">
+      <c r="F200" s="0" t="n">
         <f aca="false">C200-B200</f>
         <v>0.382638888888889</v>
       </c>
@@ -12193,20 +11134,20 @@
       <c r="A201" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C201" s="4" t="n">
+      <c r="C201" s="3" t="n">
         <f aca="false">B201+E201</f>
         <v>42691.4243055556</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E201" s="5" t="s">
+      <c r="E201" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F201" s="3" t="n">
+      <c r="F201" s="0" t="n">
         <f aca="false">C201-B201</f>
         <v>0.424305555555556</v>
       </c>
@@ -12246,20 +11187,20 @@
       <c r="A202" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C202" s="4" t="n">
+      <c r="C202" s="3" t="n">
         <f aca="false">B202+E202</f>
         <v>42691.4652777778</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="E202" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F202" s="3" t="n">
+      <c r="F202" s="0" t="n">
         <f aca="false">C202-B202</f>
         <v>0.465277777777778</v>
       </c>
@@ -12299,20 +11240,20 @@
       <c r="A203" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C203" s="4" t="n">
+      <c r="C203" s="3" t="n">
         <f aca="false">B203+E203</f>
         <v>42691.5104166667</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E203" s="5" t="s">
+      <c r="E203" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F203" s="3" t="n">
+      <c r="F203" s="0" t="n">
         <f aca="false">C203-B203</f>
         <v>0.510416666666667</v>
       </c>
@@ -12352,20 +11293,20 @@
       <c r="A204" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C204" s="4" t="n">
+      <c r="C204" s="3" t="n">
         <f aca="false">B204+E204</f>
         <v>42691.5548611111</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F204" s="3" t="n">
+      <c r="F204" s="0" t="n">
         <f aca="false">C204-B204</f>
         <v>0.554861111111111</v>
       </c>
@@ -12405,20 +11346,20 @@
       <c r="A205" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C205" s="4" t="n">
+      <c r="C205" s="3" t="n">
         <f aca="false">B205+E205</f>
         <v>42691.5930555556</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E205" s="5" t="s">
+      <c r="E205" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F205" s="3" t="n">
+      <c r="F205" s="0" t="n">
         <f aca="false">C205-B205</f>
         <v>0.593055555555556</v>
       </c>
@@ -12458,20 +11399,20 @@
       <c r="A206" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C206" s="4" t="n">
+      <c r="C206" s="3" t="n">
         <f aca="false">B206+E206</f>
         <v>42691.6347222222</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="E206" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F206" s="3" t="n">
+      <c r="F206" s="0" t="n">
         <f aca="false">C206-B206</f>
         <v>0.634722222222222</v>
       </c>
@@ -12511,20 +11452,20 @@
       <c r="A207" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C207" s="4" t="n">
+      <c r="C207" s="3" t="n">
         <f aca="false">B207+E207</f>
         <v>42691.6763888889</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E207" s="5" t="s">
+      <c r="E207" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F207" s="3" t="n">
+      <c r="F207" s="0" t="n">
         <f aca="false">C207-B207</f>
         <v>0.676388888888889</v>
       </c>
@@ -12564,20 +11505,20 @@
       <c r="A208" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C208" s="4" t="n">
+      <c r="C208" s="3" t="n">
         <f aca="false">B208+E208</f>
         <v>42691.7166666667</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="E208" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F208" s="3" t="n">
+      <c r="F208" s="0" t="n">
         <f aca="false">C208-B208</f>
         <v>0.716666666666667</v>
       </c>
@@ -12617,20 +11558,20 @@
       <c r="A209" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C209" s="4" t="n">
+      <c r="C209" s="3" t="n">
         <f aca="false">B209+E209</f>
         <v>42691.7694444444</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E209" s="5" t="s">
+      <c r="E209" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F209" s="3" t="n">
+      <c r="F209" s="0" t="n">
         <f aca="false">C209-B209</f>
         <v>0.769444444444444</v>
       </c>
@@ -12670,20 +11611,20 @@
       <c r="A210" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C210" s="4" t="n">
+      <c r="C210" s="3" t="n">
         <f aca="false">B210+E210</f>
         <v>42691.8111111111</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>50231507</v>
       </c>
-      <c r="E210" s="5" t="s">
+      <c r="E210" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F210" s="3" t="n">
+      <c r="F210" s="0" t="n">
         <f aca="false">C210-B210</f>
         <v>0.811111111111111</v>
       </c>
@@ -12723,20 +11664,20 @@
       <c r="A211" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C211" s="4" t="n">
+      <c r="C211" s="3" t="n">
         <f aca="false">B211+E211</f>
         <v>42691.2708333333</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E211" s="5" t="s">
+      <c r="E211" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F211" s="3" t="n">
+      <c r="F211" s="0" t="n">
         <f aca="false">C211-B211</f>
         <v>0.270833333333333</v>
       </c>
@@ -12758,20 +11699,20 @@
       <c r="A212" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C212" s="4" t="n">
+      <c r="C212" s="3" t="n">
         <f aca="false">B212+E212</f>
         <v>42691.3138888889</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E212" s="5" t="s">
+      <c r="E212" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F212" s="3" t="n">
+      <c r="F212" s="0" t="n">
         <f aca="false">C212-B212</f>
         <v>0.313888888888889</v>
       </c>
@@ -12811,20 +11752,20 @@
       <c r="A213" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C213" s="4" t="n">
+      <c r="C213" s="3" t="n">
         <f aca="false">B213+E213</f>
         <v>42691.3486111111</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E213" s="5" t="s">
+      <c r="E213" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F213" s="3" t="n">
+      <c r="F213" s="0" t="n">
         <f aca="false">C213-B213</f>
         <v>0.348611111111111</v>
       </c>
@@ -12864,20 +11805,20 @@
       <c r="A214" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C214" s="4" t="n">
+      <c r="C214" s="3" t="n">
         <f aca="false">B214+E214</f>
         <v>42691.3916666667</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E214" s="5" t="s">
+      <c r="E214" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F214" s="3" t="n">
+      <c r="F214" s="0" t="n">
         <f aca="false">C214-B214</f>
         <v>0.391666666666667</v>
       </c>
@@ -12917,20 +11858,20 @@
       <c r="A215" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C215" s="4" t="n">
+      <c r="C215" s="3" t="n">
         <f aca="false">B215+E215</f>
         <v>42691.4326388889</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E215" s="5" t="s">
+      <c r="E215" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F215" s="3" t="n">
+      <c r="F215" s="0" t="n">
         <f aca="false">C215-B215</f>
         <v>0.432638888888889</v>
       </c>
@@ -12970,20 +11911,20 @@
       <c r="A216" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C216" s="4" t="n">
+      <c r="C216" s="3" t="n">
         <f aca="false">B216+E216</f>
         <v>42691.475</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E216" s="5" t="s">
+      <c r="E216" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F216" s="3" t="n">
+      <c r="F216" s="0" t="n">
         <f aca="false">C216-B216</f>
         <v>0.475</v>
       </c>
@@ -13023,20 +11964,20 @@
       <c r="A217" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C217" s="4" t="n">
+      <c r="C217" s="3" t="n">
         <f aca="false">B217+E217</f>
         <v>42691.5194444444</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E217" s="5" t="s">
+      <c r="E217" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F217" s="3" t="n">
+      <c r="F217" s="0" t="n">
         <f aca="false">C217-B217</f>
         <v>0.519444444444444</v>
       </c>
@@ -13076,20 +12017,20 @@
       <c r="A218" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C218" s="4" t="n">
+      <c r="C218" s="3" t="n">
         <f aca="false">B218+E218</f>
         <v>42691.5652777778</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E218" s="5" t="s">
+      <c r="E218" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F218" s="3" t="n">
+      <c r="F218" s="0" t="n">
         <f aca="false">C218-B218</f>
         <v>0.565277777777778</v>
       </c>
@@ -13129,20 +12070,20 @@
       <c r="A219" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C219" s="4" t="n">
+      <c r="C219" s="3" t="n">
         <f aca="false">B219+E219</f>
         <v>42691.6027777778</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E219" s="5" t="s">
+      <c r="E219" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F219" s="3" t="n">
+      <c r="F219" s="0" t="n">
         <f aca="false">C219-B219</f>
         <v>0.602777777777778</v>
       </c>
@@ -13182,20 +12123,20 @@
       <c r="A220" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C220" s="4" t="n">
+      <c r="C220" s="3" t="n">
         <f aca="false">B220+E220</f>
         <v>42691.64375</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E220" s="5" t="s">
+      <c r="E220" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F220" s="3" t="n">
+      <c r="F220" s="0" t="n">
         <f aca="false">C220-B220</f>
         <v>0.64375</v>
       </c>
@@ -13235,20 +12176,20 @@
       <c r="A221" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C221" s="4" t="n">
+      <c r="C221" s="3" t="n">
         <f aca="false">B221+E221</f>
         <v>42691.6840277778</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E221" s="5" t="s">
+      <c r="E221" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F221" s="3" t="n">
+      <c r="F221" s="0" t="n">
         <f aca="false">C221-B221</f>
         <v>0.684027777777778</v>
       </c>
@@ -13288,20 +12229,20 @@
       <c r="A222" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C222" s="4" t="n">
+      <c r="C222" s="3" t="n">
         <f aca="false">B222+E222</f>
         <v>42691.7256944445</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E222" s="5" t="s">
+      <c r="E222" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F222" s="3" t="n">
+      <c r="F222" s="0" t="n">
         <f aca="false">C222-B222</f>
         <v>0.725694444444444</v>
       </c>
@@ -13341,20 +12282,20 @@
       <c r="A223" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C223" s="4" t="n">
+      <c r="C223" s="3" t="n">
         <f aca="false">B223+E223</f>
         <v>42691.7791666667</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E223" s="5" t="s">
+      <c r="E223" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F223" s="3" t="n">
+      <c r="F223" s="0" t="n">
         <f aca="false">C223-B223</f>
         <v>0.779166666666667</v>
       </c>
@@ -13394,20 +12335,20 @@
       <c r="A224" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C224" s="4" t="n">
+      <c r="C224" s="3" t="n">
         <f aca="false">B224+E224</f>
         <v>42691.8208333333</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>50231513</v>
       </c>
-      <c r="E224" s="5" t="s">
+      <c r="E224" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F224" s="3" t="n">
+      <c r="F224" s="0" t="n">
         <f aca="false">C224-B224</f>
         <v>0.820833333333333</v>
       </c>
@@ -13447,20 +12388,20 @@
       <c r="A225" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C225" s="4" t="n">
+      <c r="C225" s="3" t="n">
         <f aca="false">B225+E225</f>
         <v>42691.2763888889</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E225" s="5" t="s">
+      <c r="E225" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F225" s="3" t="n">
+      <c r="F225" s="0" t="n">
         <f aca="false">C225-B225</f>
         <v>0.276388888888889</v>
       </c>
@@ -13482,20 +12423,20 @@
       <c r="A226" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C226" s="4" t="n">
+      <c r="C226" s="3" t="n">
         <f aca="false">B226+E226</f>
         <v>42691.3201388889</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E226" s="5" t="s">
+      <c r="E226" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F226" s="3" t="n">
+      <c r="F226" s="0" t="n">
         <f aca="false">C226-B226</f>
         <v>0.320138888888889</v>
       </c>
@@ -13535,20 +12476,20 @@
       <c r="A227" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C227" s="4" t="n">
+      <c r="C227" s="3" t="n">
         <f aca="false">B227+E227</f>
         <v>42691.3548611111</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E227" s="5" t="s">
+      <c r="E227" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F227" s="3" t="n">
+      <c r="F227" s="0" t="n">
         <f aca="false">C227-B227</f>
         <v>0.354861111111111</v>
       </c>
@@ -13588,20 +12529,20 @@
       <c r="A228" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C228" s="4" t="n">
+      <c r="C228" s="3" t="n">
         <f aca="false">B228+E228</f>
         <v>42691.3979166667</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E228" s="5" t="s">
+      <c r="E228" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F228" s="3" t="n">
+      <c r="F228" s="0" t="n">
         <f aca="false">C228-B228</f>
         <v>0.397916666666667</v>
       </c>
@@ -13641,20 +12582,20 @@
       <c r="A229" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C229" s="4" t="n">
+      <c r="C229" s="3" t="n">
         <f aca="false">B229+E229</f>
         <v>42691.4388888889</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E229" s="5" t="s">
+      <c r="E229" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F229" s="3" t="n">
+      <c r="F229" s="0" t="n">
         <f aca="false">C229-B229</f>
         <v>0.438888888888889</v>
       </c>
@@ -13694,20 +12635,20 @@
       <c r="A230" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C230" s="4" t="n">
+      <c r="C230" s="3" t="n">
         <f aca="false">B230+E230</f>
         <v>42691.4826388889</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E230" s="5" t="s">
+      <c r="E230" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F230" s="3" t="n">
+      <c r="F230" s="0" t="n">
         <f aca="false">C230-B230</f>
         <v>0.482638888888889</v>
       </c>
@@ -13747,20 +12688,20 @@
       <c r="A231" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C231" s="4" t="n">
+      <c r="C231" s="3" t="n">
         <f aca="false">B231+E231</f>
         <v>42691.5256944444</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E231" s="5" t="s">
+      <c r="E231" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F231" s="3" t="n">
+      <c r="F231" s="0" t="n">
         <f aca="false">C231-B231</f>
         <v>0.525694444444444</v>
       </c>
@@ -13800,20 +12741,20 @@
       <c r="A232" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C232" s="4" t="n">
+      <c r="C232" s="3" t="n">
         <f aca="false">B232+E232</f>
         <v>42691.5722222222</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E232" s="5" t="s">
+      <c r="E232" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F232" s="3" t="n">
+      <c r="F232" s="0" t="n">
         <f aca="false">C232-B232</f>
         <v>0.572222222222222</v>
       </c>
@@ -13853,20 +12794,20 @@
       <c r="A233" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C233" s="4" t="n">
+      <c r="C233" s="3" t="n">
         <f aca="false">B233+E233</f>
         <v>42691.6097222222</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E233" s="5" t="s">
+      <c r="E233" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F233" s="3" t="n">
+      <c r="F233" s="0" t="n">
         <f aca="false">C233-B233</f>
         <v>0.609722222222222</v>
       </c>
@@ -13906,20 +12847,20 @@
       <c r="A234" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C234" s="4" t="n">
+      <c r="C234" s="3" t="n">
         <f aca="false">B234+E234</f>
         <v>42691.6506944444</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E234" s="5" t="s">
+      <c r="E234" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F234" s="3" t="n">
+      <c r="F234" s="0" t="n">
         <f aca="false">C234-B234</f>
         <v>0.650694444444444</v>
       </c>
@@ -13959,20 +12900,20 @@
       <c r="A235" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C235" s="4" t="n">
+      <c r="C235" s="3" t="n">
         <f aca="false">B235+E235</f>
         <v>42691.6902777778</v>
       </c>
       <c r="D235" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E235" s="5" t="s">
+      <c r="E235" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F235" s="3" t="n">
+      <c r="F235" s="0" t="n">
         <f aca="false">C235-B235</f>
         <v>0.690277777777778</v>
       </c>
@@ -14012,20 +12953,20 @@
       <c r="A236" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C236" s="4" t="n">
+      <c r="C236" s="3" t="n">
         <f aca="false">B236+E236</f>
         <v>42691.7326388889</v>
       </c>
       <c r="D236" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E236" s="5" t="s">
+      <c r="E236" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F236" s="3" t="n">
+      <c r="F236" s="0" t="n">
         <f aca="false">C236-B236</f>
         <v>0.732638888888889</v>
       </c>
@@ -14065,20 +13006,20 @@
       <c r="A237" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C237" s="4" t="n">
+      <c r="C237" s="3" t="n">
         <f aca="false">B237+E237</f>
         <v>42691.7868055556</v>
       </c>
       <c r="D237" s="0" t="n">
         <v>50231520</v>
       </c>
-      <c r="E237" s="5" t="s">
+      <c r="E237" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F237" s="3" t="n">
+      <c r="F237" s="0" t="n">
         <f aca="false">C237-B237</f>
         <v>0.786805555555556</v>
       </c>
@@ -14118,20 +13059,20 @@
       <c r="A238" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C238" s="4" t="n">
+      <c r="C238" s="3" t="n">
         <f aca="false">B238+E238</f>
         <v>42691.2583333333</v>
       </c>
       <c r="D238" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E238" s="5" t="s">
+      <c r="E238" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F238" s="3" t="n">
+      <c r="F238" s="0" t="n">
         <f aca="false">C238-B238</f>
         <v>0.258333333333333</v>
       </c>
@@ -14153,20 +13094,20 @@
       <c r="A239" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C239" s="4" t="n">
+      <c r="C239" s="3" t="n">
         <f aca="false">B239+E239</f>
         <v>42691.2986111111</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E239" s="5" t="s">
+      <c r="E239" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F239" s="3" t="n">
+      <c r="F239" s="0" t="n">
         <f aca="false">C239-B239</f>
         <v>0.298611111111111</v>
       </c>
@@ -14206,20 +13147,20 @@
       <c r="A240" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C240" s="4" t="n">
+      <c r="C240" s="3" t="n">
         <f aca="false">B240+E240</f>
         <v>42691.3347222222</v>
       </c>
       <c r="D240" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E240" s="5" t="s">
+      <c r="E240" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F240" s="3" t="n">
+      <c r="F240" s="0" t="n">
         <f aca="false">C240-B240</f>
         <v>0.334722222222222</v>
       </c>
@@ -14259,20 +13200,20 @@
       <c r="A241" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C241" s="4" t="n">
+      <c r="C241" s="3" t="n">
         <f aca="false">B241+E241</f>
         <v>42691.3791666667</v>
       </c>
       <c r="D241" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E241" s="5" t="s">
+      <c r="E241" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F241" s="3" t="n">
+      <c r="F241" s="0" t="n">
         <f aca="false">C241-B241</f>
         <v>0.379166666666667</v>
       </c>
@@ -14312,20 +13253,20 @@
       <c r="A242" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C242" s="4" t="n">
+      <c r="C242" s="3" t="n">
         <f aca="false">B242+E242</f>
         <v>42691.41875</v>
       </c>
       <c r="D242" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E242" s="5" t="s">
+      <c r="E242" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F242" s="3" t="n">
+      <c r="F242" s="0" t="n">
         <f aca="false">C242-B242</f>
         <v>0.41875</v>
       </c>
@@ -14365,20 +13306,20 @@
       <c r="A243" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C243" s="4" t="n">
+      <c r="C243" s="3" t="n">
         <f aca="false">B243+E243</f>
         <v>42691.4618055556</v>
       </c>
       <c r="D243" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E243" s="5" t="s">
+      <c r="E243" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F243" s="3" t="n">
+      <c r="F243" s="0" t="n">
         <f aca="false">C243-B243</f>
         <v>0.461805555555556</v>
       </c>
@@ -14418,20 +13359,20 @@
       <c r="A244" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C244" s="4" t="n">
+      <c r="C244" s="3" t="n">
         <f aca="false">B244+E244</f>
         <v>42691.5055555556</v>
       </c>
       <c r="D244" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E244" s="5" t="s">
+      <c r="E244" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F244" s="3" t="n">
+      <c r="F244" s="0" t="n">
         <f aca="false">C244-B244</f>
         <v>0.505555555555556</v>
       </c>
@@ -14471,20 +13412,20 @@
       <c r="A245" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C245" s="4" t="n">
+      <c r="C245" s="3" t="n">
         <f aca="false">B245+E245</f>
         <v>42691.55</v>
       </c>
       <c r="D245" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E245" s="5" t="s">
+      <c r="E245" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F245" s="3" t="n">
+      <c r="F245" s="0" t="n">
         <f aca="false">C245-B245</f>
         <v>0.55</v>
       </c>
@@ -14524,20 +13465,20 @@
       <c r="A246" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B246" s="4" t="n">
+      <c r="B246" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C246" s="4" t="n">
+      <c r="C246" s="3" t="n">
         <f aca="false">B246+E246</f>
         <v>42691.5881944444</v>
       </c>
       <c r="D246" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E246" s="5" t="s">
+      <c r="E246" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F246" s="3" t="n">
+      <c r="F246" s="0" t="n">
         <f aca="false">C246-B246</f>
         <v>0.588194444444444</v>
       </c>
@@ -14577,20 +13518,20 @@
       <c r="A247" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C247" s="4" t="n">
+      <c r="C247" s="3" t="n">
         <f aca="false">B247+E247</f>
         <v>42691.6298611111</v>
       </c>
       <c r="D247" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E247" s="5" t="s">
+      <c r="E247" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F247" s="3" t="n">
+      <c r="F247" s="0" t="n">
         <f aca="false">C247-B247</f>
         <v>0.629861111111111</v>
       </c>
@@ -14630,20 +13571,20 @@
       <c r="A248" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C248" s="4" t="n">
+      <c r="C248" s="3" t="n">
         <f aca="false">B248+E248</f>
         <v>42691.6722222222</v>
       </c>
       <c r="D248" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E248" s="5" t="s">
+      <c r="E248" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F248" s="3" t="n">
+      <c r="F248" s="0" t="n">
         <f aca="false">C248-B248</f>
         <v>0.672222222222222</v>
       </c>
@@ -14683,20 +13624,20 @@
       <c r="A249" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C249" s="4" t="n">
+      <c r="C249" s="3" t="n">
         <f aca="false">B249+E249</f>
         <v>42691.7118055556</v>
       </c>
       <c r="D249" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E249" s="5" t="s">
+      <c r="E249" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F249" s="3" t="n">
+      <c r="F249" s="0" t="n">
         <f aca="false">C249-B249</f>
         <v>0.711805555555556</v>
       </c>
@@ -14736,20 +13677,20 @@
       <c r="A250" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C250" s="4" t="n">
+      <c r="C250" s="3" t="n">
         <f aca="false">B250+E250</f>
         <v>42691.7625</v>
       </c>
       <c r="D250" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E250" s="5" t="s">
+      <c r="E250" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F250" s="3" t="n">
+      <c r="F250" s="0" t="n">
         <f aca="false">C250-B250</f>
         <v>0.7625</v>
       </c>
@@ -14789,20 +13730,20 @@
       <c r="A251" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C251" s="4" t="n">
+      <c r="C251" s="3" t="n">
         <f aca="false">B251+E251</f>
         <v>42691.8055555556</v>
       </c>
       <c r="D251" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E251" s="5" t="s">
+      <c r="E251" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F251" s="3" t="n">
+      <c r="F251" s="0" t="n">
         <f aca="false">C251-B251</f>
         <v>0.805555555555556</v>
       </c>
@@ -14842,20 +13783,20 @@
       <c r="A252" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="3" t="n">
         <v>42691</v>
       </c>
-      <c r="C252" s="4" t="n">
+      <c r="C252" s="3" t="n">
         <f aca="false">B252+E252</f>
         <v>42691.8333333333</v>
       </c>
       <c r="D252" s="0" t="n">
         <v>50231502</v>
       </c>
-      <c r="E252" s="5" t="s">
+      <c r="E252" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F252" s="3" t="n">
+      <c r="F252" s="0" t="n">
         <f aca="false">C252-B252</f>
         <v>0.833333333333333</v>
       </c>
@@ -14899,6 +13840,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>